--- a/biology/Botanique/Selaginella/Selaginella.xlsx
+++ b/biology/Botanique/Selaginella/Selaginella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir compté de nombreux genres et des milliers d'espèces y compris arborescentes au Paléozoïque, la famille des Sélaginellacées ne comprend de nos jours qu'un seul genre, Selaginella Beauv., qui compte environ 700 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Selaginella est le diminutif de selago, nom donné par Pline à certains Conifères puis repris pour désigner les Lycopodes. Autrefois, les Sélaginelles étaient décrites comme des petits Lycopodes.
 </t>
@@ -542,7 +556,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voir la famille des Sélaginellacées.
 C'est sur l'espèce nommée Faux sélago que Palisot de Beauvois a établi les caractères de ce genre, en donnant à cette espèce le nom de Selaginella spinosa.</t>
@@ -573,7 +589,9 @@
           <t>Milieu de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Voir la famille des Sélaginellacées.</t>
         </is>
@@ -603,16 +621,18 @@
           <t>Quelques espèces nommées en français</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rose de Jéricho - Selaginella lepidophylla
-Sélaginelle denticulée  — Selaginella denticulata[3]
-Sélaginelle fausse-sélagine - voir Sélaginelle spinuleuse[3]
-Sélaginelle des prés - Selaginella apoda[3]
-Sélaginelle de sable - Selaginella arenicola[3]
-Sélaginelle de Suisse - Selaginella helvetica[3]
+Sélaginelle denticulée  — Selaginella denticulata
+Sélaginelle fausse-sélagine - voir Sélaginelle spinuleuse
+Sélaginelle des prés - Selaginella apoda
+Sélaginelle de sable - Selaginella arenicola
+Sélaginelle de Suisse - Selaginella helvetica
 Sélaginelle de Krauss - Selaginella kraussiana
-Sélaginelle spinuleuse - Selaginella selaginoides (= Selaginella spinosa)[3]
+Sélaginelle spinuleuse - Selaginella selaginoides (= Selaginella spinosa)
 			Rose de Jéricho (Selaginella lepidophylla)
 			Sélaginelle denticulée (Selaginella denticulata)
 			Sélaginelle des prés (Selaginella apoda)
@@ -648,9 +668,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (19 mars 2017)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (19 mars 2017) :
 Selaginella atroviridis (Wall.) Spring
 Selaginella biformis A. Braun ex Kuhn
 Selaginella braunii Baker
@@ -684,7 +706,7 @@
 Selaginella wallichii (Hook. &amp; Grev.) Spring
 Selaginella willdenowii (Desv.) Baker
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (19 mars 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 mars 2017) (Attention liste brute contenant possiblement des synonymes) :
 Selaginella aboriginalis C. Schulz &amp; Homberg
 Selaginella abyssinica Spring
 Selaginella acanthonota Underw.
